--- a/gene_expression/readcounts_rawtrimmedaligned.xlsx
+++ b/gene_expression/readcounts_rawtrimmedaligned.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://miamiedu-my.sharepoint.com/personal/and128_miami_edu/Documents/GitHub/Ch4_AcerCCC/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://miamiedu-my.sharepoint.com/personal/and128_miami_edu/Documents/GitHub/Ch2_AcerCCC/gene_expression/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="8_{AC2D20C9-1ADD-8E4D-971B-86CB6CCC2940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{28F279E0-67D7-7045-B299-3E59D2A63CAA}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="8_{AC2D20C9-1ADD-8E4D-971B-86CB6CCC2940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2112C208-D653-904F-866A-55724E44FF91}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{53287C8F-2EF8-8F4F-A4A4-AD55C3792712}"/>
+    <workbookView xWindow="16960" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{53287C8F-2EF8-8F4F-A4A4-AD55C3792712}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -497,14 +497,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3118BE24-2227-8545-A7DE-92196D673364}">
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="6" max="6" width="12.6640625" customWidth="1"/>
     <col min="11" max="12" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="85" x14ac:dyDescent="0.2">
@@ -587,11 +588,11 @@
         <v>18414920</v>
       </c>
       <c r="M2" s="4">
-        <f t="shared" ref="M2:M16" si="1">1-N2</f>
+        <f t="shared" ref="M2:M13" si="1">1-N2</f>
         <v>0.17732099796422363</v>
       </c>
       <c r="N2" s="4">
-        <f t="shared" ref="N2:N16" si="2">L2/K2</f>
+        <f t="shared" ref="N2:N13" si="2">L2/K2</f>
         <v>0.82267900203577637</v>
       </c>
       <c r="O2">
@@ -599,7 +600,7 @@
         <v>10308747</v>
       </c>
       <c r="P2" s="4">
-        <f t="shared" ref="P2:P10" si="3">O2/L2</f>
+        <f t="shared" ref="P2:P7" si="3">O2/L2</f>
         <v>0.55980406105484026</v>
       </c>
     </row>
@@ -786,29 +787,29 @@
         <v>0.57233893575114092</v>
       </c>
       <c r="J6" s="3">
-        <v>1096</v>
+        <v>1099</v>
       </c>
       <c r="K6">
-        <v>18703844</v>
+        <v>17250449</v>
       </c>
       <c r="L6">
-        <v>16301904</v>
+        <v>16534490</v>
       </c>
       <c r="M6" s="4">
         <f t="shared" si="1"/>
-        <v>0.12841959118136359</v>
+        <v>4.150378926368814E-2</v>
       </c>
       <c r="N6" s="4">
         <f t="shared" si="2"/>
-        <v>0.87158040881863641</v>
+        <v>0.95849621073631186</v>
       </c>
       <c r="O6">
-        <f>SUM(4207350,2375822)</f>
-        <v>6583172</v>
+        <f>SUM(4531907,4777572)</f>
+        <v>9309479</v>
       </c>
       <c r="P6" s="4">
         <f t="shared" si="3"/>
-        <v>0.40382841169963951</v>
+        <v>0.56303393694029868</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
@@ -838,29 +839,29 @@
         <v>0.51899511351667005</v>
       </c>
       <c r="J7" s="3">
-        <v>1097</v>
+        <v>2263</v>
       </c>
       <c r="K7">
-        <v>13837894</v>
+        <v>18528392</v>
       </c>
       <c r="L7">
-        <v>12866733</v>
+        <v>16914205</v>
       </c>
       <c r="M7" s="4">
         <f t="shared" si="1"/>
-        <v>7.0181271803353873E-2</v>
+        <v>8.7119648591199916E-2</v>
       </c>
       <c r="N7" s="4">
         <f t="shared" si="2"/>
-        <v>0.92981872819664613</v>
+        <v>0.91288035140880008</v>
       </c>
       <c r="O7">
-        <f>SUM(3007154,3964237)</f>
-        <v>6971391</v>
+        <f>SUM(5919539,3968858)</f>
+        <v>9888397</v>
       </c>
       <c r="P7" s="4">
         <f t="shared" si="3"/>
-        <v>0.54181516007210218</v>
+        <v>0.58462085566540078</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
@@ -890,29 +891,29 @@
         <v>0.40382841169963951</v>
       </c>
       <c r="J8" s="3">
-        <v>1098</v>
+        <v>2265</v>
       </c>
       <c r="K8">
-        <v>10420929</v>
+        <v>19008002</v>
       </c>
       <c r="L8">
-        <v>7996315</v>
+        <v>17610280</v>
       </c>
       <c r="M8" s="4">
         <f t="shared" si="1"/>
-        <v>0.23266774008344171</v>
+        <v>7.3533346640009878E-2</v>
       </c>
       <c r="N8" s="4">
         <f t="shared" si="2"/>
-        <v>0.76733225991655829</v>
+        <v>0.92646665335999012</v>
       </c>
       <c r="O8">
-        <f>SUM(1669778,2090670)</f>
-        <v>3760448</v>
+        <f>SUM(5947042,4321669)</f>
+        <v>10268711</v>
       </c>
       <c r="P8" s="4">
-        <f t="shared" si="3"/>
-        <v>0.4702726193252767</v>
+        <f t="shared" ref="P8:P13" si="6">O8/L8</f>
+        <v>0.58310890002884674</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -942,29 +943,29 @@
         <v>0.54181516007210218</v>
       </c>
       <c r="J9" s="3">
-        <v>1099</v>
+        <v>2266</v>
       </c>
       <c r="K9">
-        <v>17250449</v>
+        <v>22434155</v>
       </c>
       <c r="L9">
-        <v>16534490</v>
+        <v>22055557</v>
       </c>
       <c r="M9" s="4">
         <f t="shared" si="1"/>
-        <v>4.150378926368814E-2</v>
+        <v>1.6875964349894135E-2</v>
       </c>
       <c r="N9" s="4">
         <f t="shared" si="2"/>
-        <v>0.95849621073631186</v>
+        <v>0.98312403565010587</v>
       </c>
       <c r="O9">
-        <f>SUM(4531907,4777572)</f>
-        <v>9309479</v>
+        <f>SUM(7805252,5183971)</f>
+        <v>12989223</v>
       </c>
       <c r="P9" s="4">
-        <f t="shared" si="3"/>
-        <v>0.56303393694029868</v>
+        <f t="shared" si="6"/>
+        <v>0.58893198661906387</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
@@ -994,29 +995,29 @@
         <v>0.4702726193252767</v>
       </c>
       <c r="J10" s="3">
-        <v>2263</v>
+        <v>2267</v>
       </c>
       <c r="K10">
-        <v>18528392</v>
+        <v>22854745</v>
       </c>
       <c r="L10">
-        <v>16914205</v>
+        <v>22624435</v>
       </c>
       <c r="M10" s="4">
         <f t="shared" si="1"/>
-        <v>8.7119648591199916E-2</v>
+        <v>1.0077119652833533E-2</v>
       </c>
       <c r="N10" s="4">
         <f t="shared" si="2"/>
-        <v>0.91288035140880008</v>
+        <v>0.98992288034716647</v>
       </c>
       <c r="O10">
-        <f>SUM(5919539,3968858)</f>
-        <v>9888397</v>
+        <f>SUM(8007584,5565458)</f>
+        <v>13573042</v>
       </c>
       <c r="P10" s="4">
-        <f t="shared" si="3"/>
-        <v>0.58462085566540078</v>
+        <f t="shared" si="6"/>
+        <v>0.59992844020193214</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
@@ -1046,29 +1047,29 @@
         <v>0.56303393694029868</v>
       </c>
       <c r="J11" s="3">
-        <v>2265</v>
+        <v>2268</v>
       </c>
       <c r="K11">
-        <v>19008002</v>
+        <v>19852858</v>
       </c>
       <c r="L11">
-        <v>17610280</v>
+        <v>18047303</v>
       </c>
       <c r="M11" s="4">
         <f t="shared" si="1"/>
-        <v>7.3533346640009878E-2</v>
+        <v>9.0946855107712943E-2</v>
       </c>
       <c r="N11" s="4">
         <f t="shared" si="2"/>
-        <v>0.92646665335999012</v>
+        <v>0.90905314489228706</v>
       </c>
       <c r="O11">
-        <f>SUM(5947042,4321669)</f>
-        <v>10268711</v>
+        <f>SUM(6654088,3752690)</f>
+        <v>10406778</v>
       </c>
       <c r="P11" s="4">
-        <f t="shared" ref="P11:P16" si="6">O11/L11</f>
-        <v>0.58310890002884674</v>
+        <f t="shared" si="6"/>
+        <v>0.57663895818671629</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
@@ -1098,29 +1099,29 @@
         <v>0.13016475661487262</v>
       </c>
       <c r="J12" s="3">
-        <v>2266</v>
+        <v>2382</v>
       </c>
       <c r="K12">
-        <v>22434155</v>
+        <v>18582623</v>
       </c>
       <c r="L12">
-        <v>22055557</v>
+        <v>9606043</v>
       </c>
       <c r="M12" s="4">
         <f t="shared" si="1"/>
-        <v>1.6875964349894135E-2</v>
+        <v>0.48306312838612719</v>
       </c>
       <c r="N12" s="4">
         <f t="shared" si="2"/>
-        <v>0.98312403565010587</v>
+        <v>0.51693687161387281</v>
       </c>
       <c r="O12">
-        <f>SUM(7805252,5183971)</f>
-        <v>12989223</v>
+        <f>SUM(3397098,2108559)</f>
+        <v>5505657</v>
       </c>
       <c r="P12" s="4">
         <f t="shared" si="6"/>
-        <v>0.58893198661906387</v>
+        <v>0.5731451545657249</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
@@ -1150,29 +1151,29 @@
         <v>0.58462085566540078</v>
       </c>
       <c r="J13" s="3">
-        <v>2267</v>
+        <v>2384</v>
       </c>
       <c r="K13">
-        <v>22854745</v>
+        <v>19280109</v>
       </c>
       <c r="L13">
-        <v>22624435</v>
+        <v>18960947</v>
       </c>
       <c r="M13" s="4">
         <f t="shared" si="1"/>
-        <v>1.0077119652833533E-2</v>
+        <v>1.6553952054939147E-2</v>
       </c>
       <c r="N13" s="4">
         <f t="shared" si="2"/>
-        <v>0.98992288034716647</v>
+        <v>0.98344604794506085</v>
       </c>
       <c r="O13">
-        <f>SUM(8007584,5565458)</f>
-        <v>13573042</v>
+        <f>SUM(5580077,6497309)</f>
+        <v>12077386</v>
       </c>
       <c r="P13" s="4">
         <f t="shared" si="6"/>
-        <v>0.59992844020193214</v>
+        <v>0.63696111802854571</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
@@ -1201,31 +1202,6 @@
         <f>F14/C14</f>
         <v>2.5011724245740191E-2</v>
       </c>
-      <c r="J14" s="3">
-        <v>2268</v>
-      </c>
-      <c r="K14">
-        <v>19852858</v>
-      </c>
-      <c r="L14">
-        <v>18047303</v>
-      </c>
-      <c r="M14" s="4">
-        <f t="shared" si="1"/>
-        <v>9.0946855107712943E-2</v>
-      </c>
-      <c r="N14" s="4">
-        <f t="shared" si="2"/>
-        <v>0.90905314489228706</v>
-      </c>
-      <c r="O14">
-        <f>SUM(6654088,3752690)</f>
-        <v>10406778</v>
-      </c>
-      <c r="P14" s="4">
-        <f t="shared" si="6"/>
-        <v>0.57663895818671629</v>
-      </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
@@ -1253,30 +1229,32 @@
         <f t="shared" si="5"/>
         <v>0.58310890002884674</v>
       </c>
-      <c r="J15" s="3">
-        <v>2382</v>
-      </c>
-      <c r="K15">
-        <v>18582623</v>
-      </c>
-      <c r="L15">
-        <v>9606043</v>
+      <c r="J15" t="s">
+        <v>7</v>
+      </c>
+      <c r="K15" s="6">
+        <f>AVERAGE(K2:K13)</f>
+        <v>20824845.583333332</v>
+      </c>
+      <c r="L15" s="6">
+        <f>AVERAGE(L2:L13)</f>
+        <v>18563437.583333332</v>
       </c>
       <c r="M15" s="4">
-        <f t="shared" si="1"/>
-        <v>0.48306312838612719</v>
+        <f>AVERAGE(M2:M13)</f>
+        <v>0.11027136627736088</v>
       </c>
       <c r="N15" s="4">
-        <f t="shared" si="2"/>
-        <v>0.51693687161387281</v>
-      </c>
-      <c r="O15">
-        <f>SUM(3397098,2108559)</f>
-        <v>5505657</v>
+        <f>AVERAGE(N2:N13)</f>
+        <v>0.889728633722639</v>
+      </c>
+      <c r="O15" s="6">
+        <f>AVERAGE(O2:O13)</f>
+        <v>10661404.75</v>
       </c>
       <c r="P15" s="4">
-        <f t="shared" si="6"/>
-        <v>0.5731451545657249</v>
+        <f>AVERAGE(P2:P13)</f>
+        <v>0.57367078741114663</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
@@ -1305,33 +1283,35 @@
         <f t="shared" si="5"/>
         <v>0.58893198661906387</v>
       </c>
-      <c r="J16" s="3">
-        <v>2384</v>
-      </c>
-      <c r="K16">
-        <v>19280109</v>
-      </c>
-      <c r="L16">
-        <v>18960947</v>
+      <c r="J16" t="s">
+        <v>8</v>
+      </c>
+      <c r="K16" s="6">
+        <f>STDEV(K2:K13)</f>
+        <v>2559124.1975185219</v>
+      </c>
+      <c r="L16" s="6">
+        <f>STDEV(L2:L13)</f>
+        <v>3683411.2176910513</v>
       </c>
       <c r="M16" s="4">
-        <f t="shared" si="1"/>
-        <v>1.6553952054939147E-2</v>
+        <f>STDEV(M2:M13)</f>
+        <v>0.13421703783794178</v>
       </c>
       <c r="N16" s="4">
-        <f t="shared" si="2"/>
-        <v>0.98344604794506085</v>
-      </c>
-      <c r="O16">
-        <f>SUM(5580077,6497309)</f>
-        <v>12077386</v>
+        <f>STDEV(N2:N13)</f>
+        <v>0.13421703783794273</v>
+      </c>
+      <c r="O16" s="6">
+        <f>STDEV(O2:O13)</f>
+        <v>2270229.9361814805</v>
       </c>
       <c r="P16" s="4">
-        <f t="shared" si="6"/>
-        <v>0.63696111802854571</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+        <f>STDEV(P2:P13)</f>
+        <v>3.11358581706799E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>2267</v>
       </c>
@@ -1358,7 +1338,7 @@
         <v>0.59992844020193214</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>2268</v>
       </c>
@@ -1384,35 +1364,8 @@
         <f t="shared" si="5"/>
         <v>0.57663895818671629</v>
       </c>
-      <c r="J18" t="s">
-        <v>7</v>
-      </c>
-      <c r="K18" s="6">
-        <f>AVERAGE(K2:K16)</f>
-        <v>19524054.266666666</v>
-      </c>
-      <c r="L18" s="6">
-        <f>AVERAGE(L2:L16)</f>
-        <v>17328413.533333335</v>
-      </c>
-      <c r="M18" s="4">
-        <f>AVERAGE(M2:M16)</f>
-        <v>0.11696833322643262</v>
-      </c>
-      <c r="N18" s="4">
-        <f>AVERAGE(N2:N16)</f>
-        <v>0.88303166677356715</v>
-      </c>
-      <c r="O18" s="6">
-        <f>AVERAGE(O2:O16)</f>
-        <v>9683457.8666666672</v>
-      </c>
-      <c r="P18" s="4">
-        <f>AVERAGE(P2:P16)</f>
-        <v>0.55333104266871858</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>2382</v>
       </c>
@@ -1438,35 +1391,8 @@
         <f t="shared" si="5"/>
         <v>0.5731451545657249</v>
       </c>
-      <c r="J19" t="s">
-        <v>8</v>
-      </c>
-      <c r="K19" s="6">
-        <f>STDEV(K2:K16)</f>
-        <v>3856506.8661025632</v>
-      </c>
-      <c r="L19" s="6">
-        <f>STDEV(L2:L16)</f>
-        <v>4436814.261486887</v>
-      </c>
-      <c r="M19" s="4">
-        <f>STDEV(M2:M16)</f>
-        <v>0.12375120526805014</v>
-      </c>
-      <c r="N19" s="4">
-        <f>STDEV(N2:N16)</f>
-        <v>0.12375120526805145</v>
-      </c>
-      <c r="O19" s="6">
-        <f>STDEV(O2:O16)</f>
-        <v>2930371.3794243573</v>
-      </c>
-      <c r="P19" s="4">
-        <f>STDEV(P2:P16)</f>
-        <v>5.6701395048012769E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>2383</v>
       </c>
@@ -1493,7 +1419,7 @@
         <v>0.20294430630495069</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>2384</v>
       </c>
@@ -1520,7 +1446,7 @@
         <v>0.63696111802854571</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -1549,7 +1475,7 @@
         <v>0.43950231151376568</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>8</v>
       </c>

--- a/gene_expression/readcounts_rawtrimmedaligned.xlsx
+++ b/gene_expression/readcounts_rawtrimmedaligned.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://miamiedu-my.sharepoint.com/personal/and128_miami_edu/Documents/GitHub/Ch2_AcerCCC/gene_expression/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://miamiedu-my.sharepoint.com/personal/and128_miami_edu/Documents/GitHub/AcerCCC/gene_expression/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="8_{AC2D20C9-1ADD-8E4D-971B-86CB6CCC2940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2112C208-D653-904F-866A-55724E44FF91}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="8_{AC2D20C9-1ADD-8E4D-971B-86CB6CCC2940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{427A3354-EE12-734F-9BCF-E513CDD0754C}"/>
   <bookViews>
-    <workbookView xWindow="16960" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{53287C8F-2EF8-8F4F-A4A4-AD55C3792712}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="16980" xr2:uid="{53287C8F-2EF8-8F4F-A4A4-AD55C3792712}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="all samples" sheetId="1" r:id="rId1"/>
+    <sheet name="subset samples" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -142,7 +143,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -156,6 +157,13 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -172,10 +180,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -497,8 +501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3118BE24-2227-8545-A7DE-92196D673364}">
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -508,49 +512,35 @@
     <col min="15" max="15" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="85" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:16" s="9" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="J1" s="7"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
@@ -578,31 +568,10 @@
         <f>F2/C2</f>
         <v>6.2702137221244028E-2</v>
       </c>
-      <c r="J2" s="3">
-        <v>1089</v>
-      </c>
-      <c r="K2">
-        <v>22384089</v>
-      </c>
-      <c r="L2">
-        <v>18414920</v>
-      </c>
-      <c r="M2" s="4">
-        <f t="shared" ref="M2:M13" si="1">1-N2</f>
-        <v>0.17732099796422363</v>
-      </c>
-      <c r="N2" s="4">
-        <f t="shared" ref="N2:N13" si="2">L2/K2</f>
-        <v>0.82267900203577637</v>
-      </c>
-      <c r="O2">
-        <f>6980010+3328737</f>
-        <v>10308747</v>
-      </c>
-      <c r="P2" s="4">
-        <f t="shared" ref="P2:P7" si="3">O2/L2</f>
-        <v>0.55980406105484026</v>
-      </c>
+      <c r="J2" s="3"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="P2" s="4"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
@@ -615,7 +584,7 @@
         <v>1506909</v>
       </c>
       <c r="D3" s="4">
-        <f t="shared" ref="D3:D21" si="4">1-E3</f>
+        <f t="shared" ref="D3:D21" si="1">1-E3</f>
         <v>0.29879410430311415</v>
       </c>
       <c r="E3" s="4">
@@ -627,34 +596,13 @@
         <v>104365</v>
       </c>
       <c r="G3" s="4">
-        <f t="shared" ref="G3:G21" si="5">F3/C3</f>
+        <f t="shared" ref="G3:G21" si="2">F3/C3</f>
         <v>6.9257665857725983E-2</v>
       </c>
-      <c r="J3" s="3">
-        <v>1090</v>
-      </c>
-      <c r="K3">
-        <v>24995122</v>
-      </c>
-      <c r="L3">
-        <v>19517057</v>
-      </c>
-      <c r="M3" s="4">
-        <f t="shared" si="1"/>
-        <v>0.21916536354573501</v>
-      </c>
-      <c r="N3" s="4">
-        <f t="shared" si="2"/>
-        <v>0.78083463645426499</v>
-      </c>
-      <c r="O3">
-        <f>6770599+3505951</f>
-        <v>10276550</v>
-      </c>
-      <c r="P3" s="4">
-        <f t="shared" si="3"/>
-        <v>0.52654198837457922</v>
-      </c>
+      <c r="J3" s="3"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="P3" s="4"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
@@ -667,7 +615,7 @@
         <v>18414920</v>
       </c>
       <c r="D4" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0.17732099796422363</v>
       </c>
       <c r="E4" s="4">
@@ -679,34 +627,13 @@
         <v>10308747</v>
       </c>
       <c r="G4" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.55980406105484026</v>
       </c>
-      <c r="J4" s="3">
-        <v>1091</v>
-      </c>
-      <c r="K4">
-        <v>24715528</v>
-      </c>
-      <c r="L4">
-        <v>24146063</v>
-      </c>
-      <c r="M4" s="4">
-        <f t="shared" si="1"/>
-        <v>2.3040778250822735E-2</v>
-      </c>
-      <c r="N4" s="4">
-        <f t="shared" si="2"/>
-        <v>0.97695922174917726</v>
-      </c>
-      <c r="O4">
-        <f>8092297+5727435</f>
-        <v>13819732</v>
-      </c>
-      <c r="P4" s="4">
-        <f t="shared" si="3"/>
-        <v>0.57233893575114092</v>
-      </c>
+      <c r="J4" s="3"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="P4" s="4"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
@@ -719,7 +646,7 @@
         <v>19517057</v>
       </c>
       <c r="D5" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0.21916536354573501</v>
       </c>
       <c r="E5" s="4">
@@ -731,34 +658,13 @@
         <v>10276550</v>
       </c>
       <c r="G5" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.52654198837457922</v>
       </c>
-      <c r="J5" s="3">
-        <v>1092</v>
-      </c>
-      <c r="K5">
-        <v>20012075</v>
-      </c>
-      <c r="L5">
-        <v>18329951</v>
-      </c>
-      <c r="M5" s="4">
-        <f t="shared" si="1"/>
-        <v>8.4055451521144131E-2</v>
-      </c>
-      <c r="N5" s="4">
-        <f t="shared" si="2"/>
-        <v>0.91594454847885587</v>
-      </c>
-      <c r="O5">
-        <f>5682080+3831075</f>
-        <v>9513155</v>
-      </c>
-      <c r="P5" s="4">
-        <f t="shared" si="3"/>
-        <v>0.51899511351667005</v>
-      </c>
+      <c r="J5" s="3"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="P5" s="4"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
@@ -771,7 +677,7 @@
         <v>24146063</v>
       </c>
       <c r="D6" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2.3040778250822735E-2</v>
       </c>
       <c r="E6" s="4">
@@ -783,34 +689,13 @@
         <v>13819732</v>
       </c>
       <c r="G6" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.57233893575114092</v>
       </c>
-      <c r="J6" s="3">
-        <v>1099</v>
-      </c>
-      <c r="K6">
-        <v>17250449</v>
-      </c>
-      <c r="L6">
-        <v>16534490</v>
-      </c>
-      <c r="M6" s="4">
-        <f t="shared" si="1"/>
-        <v>4.150378926368814E-2</v>
-      </c>
-      <c r="N6" s="4">
-        <f t="shared" si="2"/>
-        <v>0.95849621073631186</v>
-      </c>
-      <c r="O6">
-        <f>SUM(4531907,4777572)</f>
-        <v>9309479</v>
-      </c>
-      <c r="P6" s="4">
-        <f t="shared" si="3"/>
-        <v>0.56303393694029868</v>
-      </c>
+      <c r="J6" s="3"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="P6" s="4"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
@@ -823,7 +708,7 @@
         <v>18329951</v>
       </c>
       <c r="D7" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>8.4055451521144131E-2</v>
       </c>
       <c r="E7" s="4">
@@ -835,34 +720,13 @@
         <v>9513155</v>
       </c>
       <c r="G7" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.51899511351667005</v>
       </c>
-      <c r="J7" s="3">
-        <v>2263</v>
-      </c>
-      <c r="K7">
-        <v>18528392</v>
-      </c>
-      <c r="L7">
-        <v>16914205</v>
-      </c>
-      <c r="M7" s="4">
-        <f t="shared" si="1"/>
-        <v>8.7119648591199916E-2</v>
-      </c>
-      <c r="N7" s="4">
-        <f t="shared" si="2"/>
-        <v>0.91288035140880008</v>
-      </c>
-      <c r="O7">
-        <f>SUM(5919539,3968858)</f>
-        <v>9888397</v>
-      </c>
-      <c r="P7" s="4">
-        <f t="shared" si="3"/>
-        <v>0.58462085566540078</v>
-      </c>
+      <c r="J7" s="3"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="P7" s="4"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
@@ -875,7 +739,7 @@
         <v>16301904</v>
       </c>
       <c r="D8" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0.12841959118136359</v>
       </c>
       <c r="E8" s="4">
@@ -887,34 +751,13 @@
         <v>6583172</v>
       </c>
       <c r="G8" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.40382841169963951</v>
       </c>
-      <c r="J8" s="3">
-        <v>2265</v>
-      </c>
-      <c r="K8">
-        <v>19008002</v>
-      </c>
-      <c r="L8">
-        <v>17610280</v>
-      </c>
-      <c r="M8" s="4">
-        <f t="shared" si="1"/>
-        <v>7.3533346640009878E-2</v>
-      </c>
-      <c r="N8" s="4">
-        <f t="shared" si="2"/>
-        <v>0.92646665335999012</v>
-      </c>
-      <c r="O8">
-        <f>SUM(5947042,4321669)</f>
-        <v>10268711</v>
-      </c>
-      <c r="P8" s="4">
-        <f t="shared" ref="P8:P13" si="6">O8/L8</f>
-        <v>0.58310890002884674</v>
-      </c>
+      <c r="J8" s="3"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="P8" s="4"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
@@ -927,7 +770,7 @@
         <v>12866733</v>
       </c>
       <c r="D9" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>7.0181271803353873E-2</v>
       </c>
       <c r="E9" s="4">
@@ -939,34 +782,13 @@
         <v>6971391</v>
       </c>
       <c r="G9" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.54181516007210218</v>
       </c>
-      <c r="J9" s="3">
-        <v>2266</v>
-      </c>
-      <c r="K9">
-        <v>22434155</v>
-      </c>
-      <c r="L9">
-        <v>22055557</v>
-      </c>
-      <c r="M9" s="4">
-        <f t="shared" si="1"/>
-        <v>1.6875964349894135E-2</v>
-      </c>
-      <c r="N9" s="4">
-        <f t="shared" si="2"/>
-        <v>0.98312403565010587</v>
-      </c>
-      <c r="O9">
-        <f>SUM(7805252,5183971)</f>
-        <v>12989223</v>
-      </c>
-      <c r="P9" s="4">
-        <f t="shared" si="6"/>
-        <v>0.58893198661906387</v>
-      </c>
+      <c r="J9" s="3"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="P9" s="4"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
@@ -979,7 +801,7 @@
         <v>7996315</v>
       </c>
       <c r="D10" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0.23266774008344171</v>
       </c>
       <c r="E10" s="4">
@@ -991,34 +813,13 @@
         <v>3760448</v>
       </c>
       <c r="G10" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.4702726193252767</v>
       </c>
-      <c r="J10" s="3">
-        <v>2267</v>
-      </c>
-      <c r="K10">
-        <v>22854745</v>
-      </c>
-      <c r="L10">
-        <v>22624435</v>
-      </c>
-      <c r="M10" s="4">
-        <f t="shared" si="1"/>
-        <v>1.0077119652833533E-2</v>
-      </c>
-      <c r="N10" s="4">
-        <f t="shared" si="2"/>
-        <v>0.98992288034716647</v>
-      </c>
-      <c r="O10">
-        <f>SUM(8007584,5565458)</f>
-        <v>13573042</v>
-      </c>
-      <c r="P10" s="4">
-        <f t="shared" si="6"/>
-        <v>0.59992844020193214</v>
-      </c>
+      <c r="J10" s="3"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="P10" s="4"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
@@ -1031,7 +832,7 @@
         <v>16534490</v>
       </c>
       <c r="D11" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>4.150378926368814E-2</v>
       </c>
       <c r="E11" s="4">
@@ -1043,34 +844,13 @@
         <v>9309479</v>
       </c>
       <c r="G11" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.56303393694029868</v>
       </c>
-      <c r="J11" s="3">
-        <v>2268</v>
-      </c>
-      <c r="K11">
-        <v>19852858</v>
-      </c>
-      <c r="L11">
-        <v>18047303</v>
-      </c>
-      <c r="M11" s="4">
-        <f t="shared" si="1"/>
-        <v>9.0946855107712943E-2</v>
-      </c>
-      <c r="N11" s="4">
-        <f t="shared" si="2"/>
-        <v>0.90905314489228706</v>
-      </c>
-      <c r="O11">
-        <f>SUM(6654088,3752690)</f>
-        <v>10406778</v>
-      </c>
-      <c r="P11" s="4">
-        <f t="shared" si="6"/>
-        <v>0.57663895818671629</v>
-      </c>
+      <c r="J11" s="3"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="P11" s="4"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
@@ -1083,7 +863,7 @@
         <v>426690</v>
       </c>
       <c r="D12" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0.30017319766183159</v>
       </c>
       <c r="E12" s="4">
@@ -1095,34 +875,13 @@
         <v>55540</v>
       </c>
       <c r="G12" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.13016475661487262</v>
       </c>
-      <c r="J12" s="3">
-        <v>2382</v>
-      </c>
-      <c r="K12">
-        <v>18582623</v>
-      </c>
-      <c r="L12">
-        <v>9606043</v>
-      </c>
-      <c r="M12" s="4">
-        <f t="shared" si="1"/>
-        <v>0.48306312838612719</v>
-      </c>
-      <c r="N12" s="4">
-        <f t="shared" si="2"/>
-        <v>0.51693687161387281</v>
-      </c>
-      <c r="O12">
-        <f>SUM(3397098,2108559)</f>
-        <v>5505657</v>
-      </c>
-      <c r="P12" s="4">
-        <f t="shared" si="6"/>
-        <v>0.5731451545657249</v>
-      </c>
+      <c r="J12" s="3"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="P12" s="4"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
@@ -1135,7 +894,7 @@
         <v>16914205</v>
       </c>
       <c r="D13" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>8.7119648591199916E-2</v>
       </c>
       <c r="E13" s="4">
@@ -1147,34 +906,13 @@
         <v>9888397</v>
       </c>
       <c r="G13" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.58462085566540078</v>
       </c>
-      <c r="J13" s="3">
-        <v>2384</v>
-      </c>
-      <c r="K13">
-        <v>19280109</v>
-      </c>
-      <c r="L13">
-        <v>18960947</v>
-      </c>
-      <c r="M13" s="4">
-        <f t="shared" si="1"/>
-        <v>1.6553952054939147E-2</v>
-      </c>
-      <c r="N13" s="4">
-        <f t="shared" si="2"/>
-        <v>0.98344604794506085</v>
-      </c>
-      <c r="O13">
-        <f>SUM(5580077,6497309)</f>
-        <v>12077386</v>
-      </c>
-      <c r="P13" s="4">
-        <f t="shared" si="6"/>
-        <v>0.63696111802854571</v>
-      </c>
+      <c r="J13" s="3"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="P13" s="4"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
@@ -1187,7 +925,7 @@
         <v>25588</v>
       </c>
       <c r="D14" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0.43802161117455851</v>
       </c>
       <c r="E14" s="4">
@@ -1214,7 +952,7 @@
         <v>17610280</v>
       </c>
       <c r="D15" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>7.3533346640009878E-2</v>
       </c>
       <c r="E15" s="4">
@@ -1226,36 +964,15 @@
         <v>10268711</v>
       </c>
       <c r="G15" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.58310890002884674</v>
       </c>
-      <c r="J15" t="s">
-        <v>7</v>
-      </c>
-      <c r="K15" s="6">
-        <f>AVERAGE(K2:K13)</f>
-        <v>20824845.583333332</v>
-      </c>
-      <c r="L15" s="6">
-        <f>AVERAGE(L2:L13)</f>
-        <v>18563437.583333332</v>
-      </c>
-      <c r="M15" s="4">
-        <f>AVERAGE(M2:M13)</f>
-        <v>0.11027136627736088</v>
-      </c>
-      <c r="N15" s="4">
-        <f>AVERAGE(N2:N13)</f>
-        <v>0.889728633722639</v>
-      </c>
-      <c r="O15" s="6">
-        <f>AVERAGE(O2:O13)</f>
-        <v>10661404.75</v>
-      </c>
-      <c r="P15" s="4">
-        <f>AVERAGE(P2:P13)</f>
-        <v>0.57367078741114663</v>
-      </c>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="4"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
@@ -1268,7 +985,7 @@
         <v>22055557</v>
       </c>
       <c r="D16" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>1.6875964349894135E-2</v>
       </c>
       <c r="E16" s="4">
@@ -1280,36 +997,15 @@
         <v>12989223</v>
       </c>
       <c r="G16" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.58893198661906387</v>
       </c>
-      <c r="J16" t="s">
-        <v>8</v>
-      </c>
-      <c r="K16" s="6">
-        <f>STDEV(K2:K13)</f>
-        <v>2559124.1975185219</v>
-      </c>
-      <c r="L16" s="6">
-        <f>STDEV(L2:L13)</f>
-        <v>3683411.2176910513</v>
-      </c>
-      <c r="M16" s="4">
-        <f>STDEV(M2:M13)</f>
-        <v>0.13421703783794178</v>
-      </c>
-      <c r="N16" s="4">
-        <f>STDEV(N2:N13)</f>
-        <v>0.13421703783794273</v>
-      </c>
-      <c r="O16" s="6">
-        <f>STDEV(O2:O13)</f>
-        <v>2270229.9361814805</v>
-      </c>
-      <c r="P16" s="4">
-        <f>STDEV(P2:P13)</f>
-        <v>3.11358581706799E-2</v>
-      </c>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="4"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
@@ -1322,7 +1018,7 @@
         <v>22624435</v>
       </c>
       <c r="D17" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>1.0077119652833533E-2</v>
       </c>
       <c r="E17" s="4">
@@ -1334,7 +1030,7 @@
         <v>13573042</v>
       </c>
       <c r="G17" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.59992844020193214</v>
       </c>
     </row>
@@ -1349,7 +1045,7 @@
         <v>18047303</v>
       </c>
       <c r="D18" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>9.0946855107712943E-2</v>
       </c>
       <c r="E18" s="4">
@@ -1361,7 +1057,7 @@
         <v>10406778</v>
       </c>
       <c r="G18" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.57663895818671629</v>
       </c>
     </row>
@@ -1376,7 +1072,7 @@
         <v>9606043</v>
       </c>
       <c r="D19" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0.48306312838612719</v>
       </c>
       <c r="E19" s="4">
@@ -1388,7 +1084,7 @@
         <v>5505657</v>
       </c>
       <c r="G19" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.5731451545657249</v>
       </c>
     </row>
@@ -1403,7 +1099,7 @@
         <v>3229827</v>
       </c>
       <c r="D20" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0.2443486298932509</v>
       </c>
       <c r="E20" s="4">
@@ -1415,7 +1111,7 @@
         <v>655475</v>
       </c>
       <c r="G20" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.20294430630495069</v>
       </c>
     </row>
@@ -1430,7 +1126,7 @@
         <v>18960947</v>
       </c>
       <c r="D21" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>1.6553952054939147E-2</v>
       </c>
       <c r="E21" s="4">
@@ -1442,7 +1138,7 @@
         <v>12077386</v>
       </c>
       <c r="G21" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.63696111802854571</v>
       </c>
     </row>
@@ -1455,23 +1151,23 @@
         <v>15599719.1</v>
       </c>
       <c r="C23" s="5">
-        <f t="shared" ref="C23:G23" si="7">AVERAGE(C2:C21)</f>
+        <f t="shared" ref="C23:G23" si="3">AVERAGE(C2:C21)</f>
         <v>13595103.35</v>
       </c>
       <c r="D23" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0.17364377684764776</v>
       </c>
       <c r="E23" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0.82635622315235202</v>
       </c>
       <c r="F23" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>7324671.9000000004</v>
       </c>
       <c r="G23" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0.43950231151376568</v>
       </c>
     </row>
@@ -1484,24 +1180,444 @@
         <v>8038095.8278066609</v>
       </c>
       <c r="C24" s="5">
-        <f t="shared" ref="C24:G24" si="8">STDEV(C2:C21)</f>
+        <f t="shared" ref="C24:G24" si="4">STDEV(C2:C21)</f>
         <v>7753142.4259733958</v>
       </c>
       <c r="D24" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0.1519198368230438</v>
       </c>
       <c r="E24" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0.15191983682304486</v>
       </c>
       <c r="F24" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>4890203.753752457</v>
       </c>
       <c r="G24" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0.21049774395184337</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DF2750A-892F-4540-9C80-93205164D1D7}">
+  <dimension ref="A1:G16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>1089</v>
+      </c>
+      <c r="B2">
+        <v>22384089</v>
+      </c>
+      <c r="C2">
+        <v>18414920</v>
+      </c>
+      <c r="D2" s="4">
+        <f t="shared" ref="D2:D13" si="0">1-E2</f>
+        <v>0.17732099796422363</v>
+      </c>
+      <c r="E2" s="4">
+        <f t="shared" ref="E2:E13" si="1">C2/B2</f>
+        <v>0.82267900203577637</v>
+      </c>
+      <c r="F2">
+        <f>6980010+3328737</f>
+        <v>10308747</v>
+      </c>
+      <c r="G2" s="4">
+        <f t="shared" ref="G2:G13" si="2">F2/C2</f>
+        <v>0.55980406105484026</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>1090</v>
+      </c>
+      <c r="B3">
+        <v>24995122</v>
+      </c>
+      <c r="C3">
+        <v>19517057</v>
+      </c>
+      <c r="D3" s="4">
+        <f t="shared" si="0"/>
+        <v>0.21916536354573501</v>
+      </c>
+      <c r="E3" s="4">
+        <f t="shared" si="1"/>
+        <v>0.78083463645426499</v>
+      </c>
+      <c r="F3">
+        <f>6770599+3505951</f>
+        <v>10276550</v>
+      </c>
+      <c r="G3" s="4">
+        <f t="shared" si="2"/>
+        <v>0.52654198837457922</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>1091</v>
+      </c>
+      <c r="B4">
+        <v>24715528</v>
+      </c>
+      <c r="C4">
+        <v>24146063</v>
+      </c>
+      <c r="D4" s="4">
+        <f t="shared" si="0"/>
+        <v>2.3040778250822735E-2</v>
+      </c>
+      <c r="E4" s="4">
+        <f t="shared" si="1"/>
+        <v>0.97695922174917726</v>
+      </c>
+      <c r="F4">
+        <f>8092297+5727435</f>
+        <v>13819732</v>
+      </c>
+      <c r="G4" s="4">
+        <f t="shared" si="2"/>
+        <v>0.57233893575114092</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>1092</v>
+      </c>
+      <c r="B5">
+        <v>20012075</v>
+      </c>
+      <c r="C5">
+        <v>18329951</v>
+      </c>
+      <c r="D5" s="4">
+        <f t="shared" si="0"/>
+        <v>8.4055451521144131E-2</v>
+      </c>
+      <c r="E5" s="4">
+        <f t="shared" si="1"/>
+        <v>0.91594454847885587</v>
+      </c>
+      <c r="F5">
+        <f>5682080+3831075</f>
+        <v>9513155</v>
+      </c>
+      <c r="G5" s="4">
+        <f t="shared" si="2"/>
+        <v>0.51899511351667005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>1099</v>
+      </c>
+      <c r="B6">
+        <v>17250449</v>
+      </c>
+      <c r="C6">
+        <v>16534490</v>
+      </c>
+      <c r="D6" s="4">
+        <f t="shared" si="0"/>
+        <v>4.150378926368814E-2</v>
+      </c>
+      <c r="E6" s="4">
+        <f t="shared" si="1"/>
+        <v>0.95849621073631186</v>
+      </c>
+      <c r="F6">
+        <f>SUM(4531907,4777572)</f>
+        <v>9309479</v>
+      </c>
+      <c r="G6" s="4">
+        <f t="shared" si="2"/>
+        <v>0.56303393694029868</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>2263</v>
+      </c>
+      <c r="B7">
+        <v>18528392</v>
+      </c>
+      <c r="C7">
+        <v>16914205</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" si="0"/>
+        <v>8.7119648591199916E-2</v>
+      </c>
+      <c r="E7" s="4">
+        <f t="shared" si="1"/>
+        <v>0.91288035140880008</v>
+      </c>
+      <c r="F7">
+        <f>SUM(5919539,3968858)</f>
+        <v>9888397</v>
+      </c>
+      <c r="G7" s="4">
+        <f t="shared" si="2"/>
+        <v>0.58462085566540078</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>2265</v>
+      </c>
+      <c r="B8">
+        <v>19008002</v>
+      </c>
+      <c r="C8">
+        <v>17610280</v>
+      </c>
+      <c r="D8" s="4">
+        <f t="shared" si="0"/>
+        <v>7.3533346640009878E-2</v>
+      </c>
+      <c r="E8" s="4">
+        <f t="shared" si="1"/>
+        <v>0.92646665335999012</v>
+      </c>
+      <c r="F8">
+        <f>SUM(5947042,4321669)</f>
+        <v>10268711</v>
+      </c>
+      <c r="G8" s="4">
+        <f t="shared" si="2"/>
+        <v>0.58310890002884674</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>2266</v>
+      </c>
+      <c r="B9">
+        <v>22434155</v>
+      </c>
+      <c r="C9">
+        <v>22055557</v>
+      </c>
+      <c r="D9" s="4">
+        <f t="shared" si="0"/>
+        <v>1.6875964349894135E-2</v>
+      </c>
+      <c r="E9" s="4">
+        <f t="shared" si="1"/>
+        <v>0.98312403565010587</v>
+      </c>
+      <c r="F9">
+        <f>SUM(7805252,5183971)</f>
+        <v>12989223</v>
+      </c>
+      <c r="G9" s="4">
+        <f t="shared" si="2"/>
+        <v>0.58893198661906387</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>2267</v>
+      </c>
+      <c r="B10">
+        <v>22854745</v>
+      </c>
+      <c r="C10">
+        <v>22624435</v>
+      </c>
+      <c r="D10" s="4">
+        <f t="shared" si="0"/>
+        <v>1.0077119652833533E-2</v>
+      </c>
+      <c r="E10" s="4">
+        <f t="shared" si="1"/>
+        <v>0.98992288034716647</v>
+      </c>
+      <c r="F10">
+        <f>SUM(8007584,5565458)</f>
+        <v>13573042</v>
+      </c>
+      <c r="G10" s="4">
+        <f t="shared" si="2"/>
+        <v>0.59992844020193214</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>2268</v>
+      </c>
+      <c r="B11">
+        <v>19852858</v>
+      </c>
+      <c r="C11">
+        <v>18047303</v>
+      </c>
+      <c r="D11" s="4">
+        <f t="shared" si="0"/>
+        <v>9.0946855107712943E-2</v>
+      </c>
+      <c r="E11" s="4">
+        <f t="shared" si="1"/>
+        <v>0.90905314489228706</v>
+      </c>
+      <c r="F11">
+        <f>SUM(6654088,3752690)</f>
+        <v>10406778</v>
+      </c>
+      <c r="G11" s="4">
+        <f t="shared" si="2"/>
+        <v>0.57663895818671629</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>2382</v>
+      </c>
+      <c r="B12">
+        <v>18582623</v>
+      </c>
+      <c r="C12">
+        <v>9606043</v>
+      </c>
+      <c r="D12" s="4">
+        <f t="shared" si="0"/>
+        <v>0.48306312838612719</v>
+      </c>
+      <c r="E12" s="4">
+        <f t="shared" si="1"/>
+        <v>0.51693687161387281</v>
+      </c>
+      <c r="F12">
+        <f>SUM(3397098,2108559)</f>
+        <v>5505657</v>
+      </c>
+      <c r="G12" s="4">
+        <f t="shared" si="2"/>
+        <v>0.5731451545657249</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>2384</v>
+      </c>
+      <c r="B13">
+        <v>19280109</v>
+      </c>
+      <c r="C13">
+        <v>18960947</v>
+      </c>
+      <c r="D13" s="4">
+        <f t="shared" si="0"/>
+        <v>1.6553952054939147E-2</v>
+      </c>
+      <c r="E13" s="4">
+        <f t="shared" si="1"/>
+        <v>0.98344604794506085</v>
+      </c>
+      <c r="F13">
+        <f>SUM(5580077,6497309)</f>
+        <v>12077386</v>
+      </c>
+      <c r="G13" s="4">
+        <f t="shared" si="2"/>
+        <v>0.63696111802854571</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="6">
+        <f t="shared" ref="B15:G15" si="3">AVERAGE(B2:B13)</f>
+        <v>20824845.583333332</v>
+      </c>
+      <c r="C15" s="6">
+        <f t="shared" si="3"/>
+        <v>18563437.583333332</v>
+      </c>
+      <c r="D15" s="4">
+        <f t="shared" si="3"/>
+        <v>0.11027136627736088</v>
+      </c>
+      <c r="E15" s="4">
+        <f t="shared" si="3"/>
+        <v>0.889728633722639</v>
+      </c>
+      <c r="F15" s="6">
+        <f t="shared" si="3"/>
+        <v>10661404.75</v>
+      </c>
+      <c r="G15" s="4">
+        <f t="shared" si="3"/>
+        <v>0.57367078741114663</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="6">
+        <f t="shared" ref="B16:G16" si="4">STDEV(B2:B13)</f>
+        <v>2559124.1975185219</v>
+      </c>
+      <c r="C16" s="6">
+        <f t="shared" si="4"/>
+        <v>3683411.2176910513</v>
+      </c>
+      <c r="D16" s="4">
+        <f t="shared" si="4"/>
+        <v>0.13421703783794178</v>
+      </c>
+      <c r="E16" s="4">
+        <f t="shared" si="4"/>
+        <v>0.13421703783794273</v>
+      </c>
+      <c r="F16" s="6">
+        <f t="shared" si="4"/>
+        <v>2270229.9361814805</v>
+      </c>
+      <c r="G16" s="4">
+        <f t="shared" si="4"/>
+        <v>3.11358581706799E-2</v>
       </c>
     </row>
   </sheetData>
